--- a/diagramaBurndown.xlsx
+++ b/diagramaBurndown.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t xml:space="preserve">SEMANA DE TRABAJO</t>
   </si>
@@ -107,7 +107,34 @@
     <t xml:space="preserve">Preparar presentacón (Javier)</t>
   </si>
   <si>
-    <t xml:space="preserve">Realizr la presentacion del documento y preparar la exposición</t>
+    <t xml:space="preserve">Realizar la presentacion del documento y preparar la exposición</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar Información sobre FFMPEG (José Daniel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar información acerca de las múltiples funciones de FFMPEG y como usarlas en python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir codigo (José Daniel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentar el código añadido (José Daniel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda de infromación e Incluir comandos de FFMPEG en notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejorar el código (José Daniel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar si el código es mejorable y en caso de que sea mejorable, mejorarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar el trabajo (José Daniel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisar detalladamente la presentación del trabajo y el código completo.</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALES</t>
@@ -370,12 +397,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="12"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -398,12 +423,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <i val="true"/>
-      <sz val="18"/>
-      <color rgb="FF404040"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -504,7 +529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,10 +655,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0508364867556264"/>
-          <c:y val="0.138556505223172"/>
-          <c:w val="0.907488548097988"/>
-          <c:h val="0.784805318138652"/>
+          <c:x val="0.0508584224931575"/>
+          <c:y val="0.138565602307769"/>
+          <c:w val="0.907439661607365"/>
+          <c:h val="0.784740873371133"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -885,11 +910,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="14087398"/>
-        <c:axId val="79593844"/>
+        <c:axId val="20757130"/>
+        <c:axId val="67559132"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="14087398"/>
+        <c:axId val="20757130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +946,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79593844"/>
+        <c:crossAx val="67559132"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79593844"/>
+        <c:axId val="67559132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +995,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14087398"/>
+        <c:crossAx val="20757130"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,10 +1117,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0508275389286064"/>
-          <c:y val="0.138556505223172"/>
-          <c:w val="0.907501713838018"/>
-          <c:h val="0.784805318138652"/>
+          <c:x val="0.0508026624902114"/>
+          <c:y val="0.138569664735492"/>
+          <c:w val="0.90744909945184"/>
+          <c:h val="0.784689904074461"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1347,11 +1372,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50178978"/>
-        <c:axId val="34253115"/>
+        <c:axId val="3916553"/>
+        <c:axId val="41344111"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50178978"/>
+        <c:axId val="3916553"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34253115"/>
+        <c:crossAx val="41344111"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34253115"/>
+        <c:axId val="41344111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1457,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50178978"/>
+        <c:crossAx val="3916553"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1798,11 +1823,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64651836"/>
-        <c:axId val="97004545"/>
+        <c:axId val="22319031"/>
+        <c:axId val="25294616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64651836"/>
+        <c:axId val="22319031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97004545"/>
+        <c:crossAx val="25294616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97004545"/>
+        <c:axId val="25294616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1908,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64651836"/>
+        <c:crossAx val="22319031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,11 +2264,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="64945721"/>
-        <c:axId val="90249388"/>
+        <c:axId val="80866506"/>
+        <c:axId val="90928916"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64945721"/>
+        <c:axId val="80866506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2300,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90249388"/>
+        <c:crossAx val="90928916"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2283,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90249388"/>
+        <c:axId val="90928916"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2349,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64945721"/>
+        <c:crossAx val="80866506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,11 +2705,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28336601"/>
-        <c:axId val="97040624"/>
+        <c:axId val="99888157"/>
+        <c:axId val="31100377"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28336601"/>
+        <c:axId val="99888157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97040624"/>
+        <c:crossAx val="31100377"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97040624"/>
+        <c:axId val="31100377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2790,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28336601"/>
+        <c:crossAx val="99888157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2844,7 +2869,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>259920</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2852,8 +2877,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18586440" y="2476440"/>
-        <a:ext cx="7229520" cy="3619080"/>
+        <a:off x="19604520" y="2476440"/>
+        <a:ext cx="7233840" cy="3618720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2877,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>259920</xdr:colOff>
+      <xdr:colOff>259560</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2887,8 +2912,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13468320" y="2600280"/>
-        <a:ext cx="7351560" cy="3790440"/>
+        <a:off x="13472640" y="2600280"/>
+        <a:ext cx="7355160" cy="3790080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2912,9 +2937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2922,8 +2947,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4420800" y="2851200"/>
-        <a:ext cx="7300800" cy="3787560"/>
+        <a:off x="4423320" y="2851200"/>
+        <a:ext cx="7304400" cy="3787200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2947,9 +2972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>399600</xdr:colOff>
+      <xdr:colOff>399240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2957,8 +2982,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5118120" y="3276720"/>
-        <a:ext cx="7229520" cy="3787560"/>
+        <a:off x="5121360" y="3276720"/>
+        <a:ext cx="7233840" cy="3787200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2982,9 +3007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>818640</xdr:colOff>
+      <xdr:colOff>818280</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2992,8 +3017,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5537160" y="3515040"/>
-        <a:ext cx="7229520" cy="3787560"/>
+        <a:off x="5540400" y="3515040"/>
+        <a:ext cx="7233840" cy="3787200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3013,14 +3038,14 @@
   </sheetPr>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.16"/>
   </cols>
   <sheetData>
@@ -3193,7 +3218,7 @@
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">G36</f>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>16</v>
@@ -3246,7 +3271,7 @@
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">H36</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>15</v>
@@ -3256,7 +3281,7 @@
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">S6-O6</f>
-        <v>16</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,7 +3325,7 @@
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">I36</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>19</v>
@@ -3310,7 +3335,7 @@
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">S7-O7</f>
-        <v>12</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,7 +3345,7 @@
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="F9" s="4" t="n">
@@ -3354,7 +3379,7 @@
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">J36</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>22</v>
@@ -3364,7 +3389,7 @@
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">S8-O8</f>
-        <v>8</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,7 +3443,7 @@
       </c>
       <c r="S10" s="0" t="n">
         <f aca="false">S9-O9</f>
-        <v>4</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,7 +3453,7 @@
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="4" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="4" t="n">
@@ -3463,7 +3488,7 @@
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">SUM(O6:O10)</f>
-        <v>16</v>
+        <v>31.5</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>24</v>
@@ -3473,7 +3498,7 @@
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">S10-O10</f>
-        <v>4</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,13 +3570,21 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="0" t="n">
         <f aca="false">IF(F14=G$3,E14,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
         <f aca="false">IF(F14=H$3,E14,0)</f>
@@ -3571,13 +3604,21 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="G15" s="0" t="n">
         <f aca="false">IF(F15=G$3,E15,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
         <f aca="false">IF(F15=H$3,E15,0)</f>
@@ -3597,13 +3638,21 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" s="0" t="n">
         <f aca="false">IF(F16=G$3,E16,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="0" t="n">
         <f aca="false">IF(F16=H$3,E16,0)</f>
@@ -3623,17 +3672,25 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="G17" s="0" t="n">
         <f aca="false">IF(F17=G$3,E17,0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
         <f aca="false">IF(F17=H$3,E17,0)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">IF(F17=I$3,E17,0)</f>
@@ -3649,17 +3706,25 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="G18" s="0" t="n">
         <f aca="false">IF(F18=G$3,E18,0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
         <f aca="false">IF(F18=H$3,E18,0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">IF(F18=I$3,E18,0)</f>
@@ -3675,10 +3740,18 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="G19" s="0" t="n">
         <f aca="false">IF(F19=G$3,E19,0)</f>
         <v>0</v>
@@ -3689,7 +3762,7 @@
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">IF(F19=I$3,E19,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">IF(F19=J$3,E19,0)</f>
@@ -3701,10 +3774,18 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="G20" s="0" t="n">
         <f aca="false">IF(F20=G$3,E20,0)</f>
         <v>0</v>
@@ -3715,7 +3796,7 @@
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">IF(F20=I$3,E20,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">IF(F20=J$3,E20,0)</f>
@@ -3727,10 +3808,18 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>3</v>
+      </c>
       <c r="G21" s="0" t="n">
         <f aca="false">IF(F21=G$3,E21,0)</f>
         <v>0</v>
@@ -3741,7 +3830,7 @@
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">IF(F21=I$3,E21,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">IF(F21=J$3,E21,0)</f>
@@ -3753,10 +3842,18 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>4</v>
+      </c>
       <c r="G22" s="0" t="n">
         <f aca="false">IF(F22=G$3,E22,0)</f>
         <v>0</v>
@@ -3771,7 +3868,7 @@
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">IF(F22=J$3,E22,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="false">IF(F22=K$3,E22,0)</f>
@@ -4092,23 +4189,23 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">SUM(G4:G34)</f>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H36" s="0" t="n">
         <f aca="false">SUM(H4:H34)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I36" s="0" t="n">
         <f aca="false">SUM(I4:I34)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J36" s="0" t="n">
         <f aca="false">SUM(J4:J34)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K36" s="0" t="n">
         <f aca="false">SUM(K4:K34)</f>
@@ -4139,11 +4236,11 @@
   </sheetPr>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.83"/>
@@ -4193,10 +4290,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.5</v>
@@ -4237,10 +4334,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
@@ -4283,10 +4380,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0.25</v>
@@ -4336,10 +4433,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0.1</v>
@@ -4390,10 +4487,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0.1</v>
@@ -4444,10 +4541,10 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0.2</v>
@@ -4498,10 +4595,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0.3</v>
@@ -4552,10 +4649,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="n">
         <v>1</v>
@@ -4607,10 +4704,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0.1</v>
@@ -4641,10 +4738,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.4</v>
@@ -4675,10 +4772,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1.1</v>
@@ -4709,10 +4806,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0.3</v>
@@ -4743,10 +4840,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0.05</v>
@@ -4777,10 +4874,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.05</v>
@@ -4811,10 +4908,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.3</v>
@@ -4845,10 +4942,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>2</v>
@@ -4879,10 +4976,10 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0.2</v>
@@ -4913,10 +5010,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0.04</v>
@@ -4947,10 +5044,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0.04</v>
@@ -4981,10 +5078,10 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0.12</v>
@@ -5015,10 +5112,10 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0.04</v>
@@ -5049,10 +5146,10 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0.4</v>
@@ -5083,10 +5180,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0.2</v>
@@ -5117,10 +5214,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0.9</v>
@@ -5151,10 +5248,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1.5</v>
@@ -5185,10 +5282,10 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>2.01</v>
@@ -5219,10 +5316,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>1.2</v>
@@ -5253,10 +5350,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1.4</v>
@@ -5287,10 +5384,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1</v>
@@ -5321,10 +5418,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1.2</v>
@@ -5355,10 +5452,10 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>1</v>
@@ -5389,7 +5486,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">SUM(G4:G34)</f>
@@ -5436,30 +5533,30 @@
   </sheetPr>
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>11</v>
@@ -5468,7 +5565,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>11</v>
@@ -5519,7 +5616,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -5542,7 +5639,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>4</v>
@@ -5585,7 +5682,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">SUM(F8:F12)</f>
@@ -5628,27 +5725,27 @@
   </sheetPr>
   <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>11</v>
@@ -5657,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>11</v>
@@ -5708,7 +5805,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
@@ -5731,7 +5828,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>4</v>
@@ -5774,7 +5871,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">SUM(F9:F13)</f>
@@ -5817,27 +5914,27 @@
   </sheetPr>
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>11</v>
@@ -5846,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>11</v>
@@ -5897,7 +5994,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
@@ -5920,7 +6017,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>4</v>
@@ -5963,7 +6060,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">SUM(F8:F12)</f>

--- a/diagramaBurndown.xlsx
+++ b/diagramaBurndown.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apazg\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F2641-0A64-47D2-8721-CD3CC5EDC758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PARA RELLENAR" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="EJEMPLO RELLENO" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="CASO 1 Ajustado" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CASO 2 Subestimado" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CASO 3 Sobreestimado" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PARA RELLENAR" sheetId="1" r:id="rId1"/>
+    <sheet name="EJEMPLO RELLENO" sheetId="2" r:id="rId2"/>
+    <sheet name="CASO 1 Ajustado" sheetId="3" r:id="rId3"/>
+    <sheet name="CASO 2 Subestimado" sheetId="4" r:id="rId4"/>
+    <sheet name="CASO 3 Sobreestimado" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,364 +29,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
-  <si>
-    <t xml:space="preserve">SEMANA DE TRABAJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción de la tarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esfuerzo (en horas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id Semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparacion de entorno (Javier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalar requerimientos, crear repositorio en git con fuentes y notebook para comenzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL SEMANAS. ESFUEZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL SEMANAS. ESFUEZO PENDIENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que es FFMPEG (Javier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar información sobre qué es FFMPEG y como usarlo en python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir codigo (Javier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir comandos de FFMPEG en notebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentar (Javier)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+  <si>
+    <t>SEMANA DE TRABAJO</t>
+  </si>
+  <si>
+    <t>Nombre tarea</t>
+  </si>
+  <si>
+    <t>Descripción de la tarea</t>
+  </si>
+  <si>
+    <t>Esfuerzo (en horas)</t>
+  </si>
+  <si>
+    <t>Id Semana</t>
+  </si>
+  <si>
+    <t>Preparacion de entorno (Javier)</t>
+  </si>
+  <si>
+    <t>Instalar requerimientos, crear repositorio en git con fuentes y notebook para comenzar</t>
+  </si>
+  <si>
+    <t>TOTAL SEMANAS. ESFUEZO</t>
+  </si>
+  <si>
+    <t>TOTAL SEMANAS. ESFUEZO PENDIENTE</t>
+  </si>
+  <si>
+    <t>Que es FFMPEG (Javier)</t>
+  </si>
+  <si>
+    <t>Buscar información sobre qué es FFMPEG y como usarlo en python</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>Añadir codigo (Javier)</t>
+  </si>
+  <si>
+    <t>Incluir comandos de FFMPEG en notebook</t>
+  </si>
+  <si>
+    <t>Semana 1</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Documentar (Javier)</t>
   </si>
   <si>
     <t xml:space="preserve">Añadir comentarios explicativos sobre los comandos </t>
   </si>
   <si>
-    <t xml:space="preserve">Semana 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar Información (Javier)</t>
+    <t>Semana 2</t>
+  </si>
+  <si>
+    <t>Buscar Información (Javier)</t>
   </si>
   <si>
     <t xml:space="preserve">Buscar comandos útiles y como se aplican </t>
   </si>
   <si>
-    <t xml:space="preserve">Semana 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semana 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar presentacón (Javier)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar la presentacion del documento y preparar la exposición</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar Información sobre FFMPEG (José Daniel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar información acerca de las múltiples funciones de FFMPEG y como usarlas en python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Añadir codigo (José Daniel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentar el código añadido (José Daniel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Búsqueda de infromación e Incluir comandos de FFMPEG en notebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mejorar el código (José Daniel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobar si el código es mejorable y en caso de que sea mejorable, mejorarlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisar el trabajo (José Daniel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisar detalladamente la presentación del trabajo y el código completo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarea 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bla bla 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIEMPO DEDICADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESFUERZO RESTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subestimación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobreestimado</t>
+    <t>Semana 3</t>
+  </si>
+  <si>
+    <t>Semana 4</t>
+  </si>
+  <si>
+    <t>Semana 5</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Preparar presentacón (Javier)</t>
+  </si>
+  <si>
+    <t>Realizar la presentacion del documento y preparar la exposición</t>
+  </si>
+  <si>
+    <t>Buscar Información sobre FFMPEG (José Daniel)</t>
+  </si>
+  <si>
+    <t>Buscar información acerca de las múltiples funciones de FFMPEG y como usarlas en python</t>
+  </si>
+  <si>
+    <t>Añadir codigo (José Daniel)</t>
+  </si>
+  <si>
+    <t>Documentar el código añadido (José Daniel)</t>
+  </si>
+  <si>
+    <t>Búsqueda de infromación e Incluir comandos de FFMPEG en notebook</t>
+  </si>
+  <si>
+    <t>Mejorar el código (José Daniel)</t>
+  </si>
+  <si>
+    <t>Comprobar si el código es mejorable y en caso de que sea mejorable, mejorarlo</t>
+  </si>
+  <si>
+    <t>Revisar el trabajo (José Daniel)</t>
+  </si>
+  <si>
+    <t>Revisar detalladamente la presentación del trabajo y el código completo.</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
+  </si>
+  <si>
+    <t>Tarea 1</t>
+  </si>
+  <si>
+    <t>bla bla 1</t>
+  </si>
+  <si>
+    <t>Tarea 2</t>
+  </si>
+  <si>
+    <t>bla bla 2</t>
+  </si>
+  <si>
+    <t>Tarea 3</t>
+  </si>
+  <si>
+    <t>bla bla 3</t>
+  </si>
+  <si>
+    <t>Tarea 4</t>
+  </si>
+  <si>
+    <t>bla bla 4</t>
+  </si>
+  <si>
+    <t>Tarea 5</t>
+  </si>
+  <si>
+    <t>bla bla 5</t>
+  </si>
+  <si>
+    <t>Tarea 6</t>
+  </si>
+  <si>
+    <t>bla bla 6</t>
+  </si>
+  <si>
+    <t>Tarea 7</t>
+  </si>
+  <si>
+    <t>bla bla 7</t>
+  </si>
+  <si>
+    <t>Tarea 8</t>
+  </si>
+  <si>
+    <t>bla bla 8</t>
+  </si>
+  <si>
+    <t>Tarea 9</t>
+  </si>
+  <si>
+    <t>bla bla 9</t>
+  </si>
+  <si>
+    <t>Tarea 10</t>
+  </si>
+  <si>
+    <t>bla bla 10</t>
+  </si>
+  <si>
+    <t>Tarea 11</t>
+  </si>
+  <si>
+    <t>bla bla 11</t>
+  </si>
+  <si>
+    <t>Tarea 12</t>
+  </si>
+  <si>
+    <t>bla bla 12</t>
+  </si>
+  <si>
+    <t>Tarea 13</t>
+  </si>
+  <si>
+    <t>bla bla 13</t>
+  </si>
+  <si>
+    <t>Tarea 14</t>
+  </si>
+  <si>
+    <t>bla bla 14</t>
+  </si>
+  <si>
+    <t>Tarea 15</t>
+  </si>
+  <si>
+    <t>bla bla 15</t>
+  </si>
+  <si>
+    <t>Tarea 16</t>
+  </si>
+  <si>
+    <t>bla bla 16</t>
+  </si>
+  <si>
+    <t>Tarea 17</t>
+  </si>
+  <si>
+    <t>bla bla 17</t>
+  </si>
+  <si>
+    <t>Tarea 18</t>
+  </si>
+  <si>
+    <t>bla bla 18</t>
+  </si>
+  <si>
+    <t>Tarea 19</t>
+  </si>
+  <si>
+    <t>bla bla 19</t>
+  </si>
+  <si>
+    <t>Tarea 20</t>
+  </si>
+  <si>
+    <t>bla bla 20</t>
+  </si>
+  <si>
+    <t>Tarea 21</t>
+  </si>
+  <si>
+    <t>bla bla 21</t>
+  </si>
+  <si>
+    <t>Tarea 22</t>
+  </si>
+  <si>
+    <t>bla bla 22</t>
+  </si>
+  <si>
+    <t>Tarea 23</t>
+  </si>
+  <si>
+    <t>bla bla 23</t>
+  </si>
+  <si>
+    <t>Tarea 24</t>
+  </si>
+  <si>
+    <t>bla bla 24</t>
+  </si>
+  <si>
+    <t>Tarea 25</t>
+  </si>
+  <si>
+    <t>bla bla 25</t>
+  </si>
+  <si>
+    <t>Tarea 26</t>
+  </si>
+  <si>
+    <t>bla bla 26</t>
+  </si>
+  <si>
+    <t>Tarea 27</t>
+  </si>
+  <si>
+    <t>bla bla 27</t>
+  </si>
+  <si>
+    <t>Tarea 28</t>
+  </si>
+  <si>
+    <t>bla bla 28</t>
+  </si>
+  <si>
+    <t>Tarea 29</t>
+  </si>
+  <si>
+    <t>bla bla 29</t>
+  </si>
+  <si>
+    <t>Tarea 30</t>
+  </si>
+  <si>
+    <t>bla bla 30</t>
+  </si>
+  <si>
+    <t>Tarea 31</t>
+  </si>
+  <si>
+    <t>bla bla 31</t>
+  </si>
+  <si>
+    <t>TIEMPO DEDICADO</t>
+  </si>
+  <si>
+    <t>ESFUERZO RESTANTE</t>
+  </si>
+  <si>
+    <t>Sesión</t>
+  </si>
+  <si>
+    <t>Caso 1</t>
+  </si>
+  <si>
+    <t>Ajustado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Caso 2</t>
+  </si>
+  <si>
+    <t>Subestimación</t>
+  </si>
+  <si>
+    <t>Sobreestimado</t>
+  </si>
+  <si>
+    <t>Revisión y ayuda a mis compañeros con el notebook</t>
+  </si>
+  <si>
+    <t>Buscar mejoras o fallos en el código de mis compañeros con el fin de mejorar el proyecto.</t>
+  </si>
+  <si>
+    <t>Descarga y preparación de docker</t>
+  </si>
+  <si>
+    <t>Descarga de la aplicación docker desktop y preparación del entorno</t>
+  </si>
+  <si>
+    <t>Lectura de información sobre comandos docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas con comandos </t>
+  </si>
+  <si>
+    <t>Creacion del contenedor</t>
+  </si>
+  <si>
+    <t>Poner contenedor en funcionamiento</t>
+  </si>
+  <si>
+    <t>Ejecución del contenedor para ver si funciona.</t>
+  </si>
+  <si>
+    <t>Creacion del contenedor de docker</t>
+  </si>
+  <si>
+    <t>Realizar distintas pruebas con el fin de visualizar la utilidad de comandos</t>
+  </si>
+  <si>
+    <t>Buscar información sobre distintos comandos y sobre la creación de contendores.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -403,38 +426,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -452,100 +449,56 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -604,15 +557,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -621,7 +592,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -629,7 +600,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -655,10 +626,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0508584224931575"/>
-          <c:y val="0.138565602307769"/>
+          <c:x val="5.0858422493157501E-2"/>
+          <c:y val="0.13856560230776899"/>
           <c:w val="0.907439661607365"/>
-          <c:h val="0.784740873371133"/>
+          <c:h val="0.78474087337113296"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -679,12 +650,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="8fa1d3"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="8fa1d3"/>
+                <a:srgbClr val="8FA1D3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -694,24 +662,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8fa1d3"/>
+                <a:srgbClr val="8FA1D3"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -720,8 +695,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -782,6 +758,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-410D-495E-8853-11EBC3E56E39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -798,12 +779,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3c65ad"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3c65ad"/>
+                <a:srgbClr val="3C65AD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -813,24 +791,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3c65ad"/>
+                <a:srgbClr val="3C65AD"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -839,8 +824,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -901,7 +887,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-410D-495E-8853-11EBC3E56E39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -910,6 +909,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="20757130"/>
         <c:axId val="67559132"/>
       </c:lineChart>
@@ -937,13 +937,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67559132"/>
@@ -964,7 +965,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf">
+                <a:srgbClr val="BFBFBF">
                   <a:alpha val="36000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -986,13 +987,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="20757130"/>
@@ -1012,16 +1014,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.647611767507164"/>
+          <c:x val="0.64761176750716398"/>
           <c:y val="0.257796574933084"/>
-          <c:w val="0.133410130303055"/>
+          <c:w val="0.13341013030305501"/>
           <c:h val="0.111386918219381"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="f2f2f2">
+          <a:srgbClr val="F2F2F2">
             <a:alpha val="39000"/>
           </a:srgbClr>
         </a:solidFill>
@@ -1034,47 +1036,56 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
       <a:gsLst>
         <a:gs pos="0">
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:srgbClr val="bfbfbf"/>
+          <a:srgbClr val="BFBFBF"/>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="0" r="50000" b="100000"/>
+        <a:fillToRect l="50000" r="50000" b="100000"/>
       </a:path>
     </a:gradFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="bfbfbf"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1083,7 +1094,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -1091,7 +1102,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -1117,10 +1128,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0508026624902114"/>
-          <c:y val="0.138569664735492"/>
-          <c:w val="0.90744909945184"/>
-          <c:h val="0.784689904074461"/>
+          <c:x val="5.0802662490211398E-2"/>
+          <c:y val="0.13856966473549201"/>
+          <c:w val="0.90744909945184005"/>
+          <c:h val="0.78468990407446104"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1141,12 +1152,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="8fa1d3"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="8fa1d3"/>
+                <a:srgbClr val="8FA1D3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1156,24 +1164,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="8fa1d3"/>
+                <a:srgbClr val="8FA1D3"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1182,8 +1197,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1244,6 +1260,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A78-4344-B380-8DBC067BE76F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1260,12 +1281,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3c65ad"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="3c65ad"/>
+                <a:srgbClr val="3C65AD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1275,24 +1293,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3c65ad"/>
+                <a:srgbClr val="3C65AD"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1301,8 +1326,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1363,7 +1389,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A78-4344-B380-8DBC067BE76F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1372,6 +1411,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="3916553"/>
         <c:axId val="41344111"/>
       </c:lineChart>
@@ -1399,13 +1439,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41344111"/>
@@ -1426,7 +1467,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf">
+                <a:srgbClr val="BFBFBF">
                   <a:alpha val="36000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -1448,13 +1489,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="3916553"/>
@@ -1474,16 +1516,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.647611767507164"/>
+          <c:x val="0.64761176750716398"/>
           <c:y val="0.257796574933084"/>
-          <c:w val="0.133410130303055"/>
+          <c:w val="0.13341013030305501"/>
           <c:h val="0.111386918219381"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="f2f2f2">
+          <a:srgbClr val="F2F2F2">
             <a:alpha val="39000"/>
           </a:srgbClr>
         </a:solidFill>
@@ -1496,47 +1538,56 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
       <a:gsLst>
         <a:gs pos="0">
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:srgbClr val="bfbfbf"/>
+          <a:srgbClr val="BFBFBF"/>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="0" r="50000" b="100000"/>
+        <a:fillToRect l="50000" r="50000" b="100000"/>
       </a:path>
     </a:gradFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="bfbfbf"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1545,7 +1596,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -1553,7 +1604,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -1574,6 +1625,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1592,12 +1644,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1607,24 +1656,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1633,8 +1689,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1642,9 +1699,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 1 Ajustado'!$J$8:$J$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1664,8 +1722,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1695,6 +1753,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A363-4C96-B5CB-285D7F7E001A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1711,12 +1774,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a7b4db"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1726,24 +1786,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -1752,8 +1819,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1761,9 +1829,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 1 Ajustado'!$J$8:$J$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1783,8 +1852,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1814,7 +1883,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A363-4C96-B5CB-285D7F7E001A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -1823,6 +1905,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="22319031"/>
         <c:axId val="25294616"/>
       </c:lineChart>
@@ -1850,13 +1933,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25294616"/>
@@ -1877,7 +1961,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf">
+                <a:srgbClr val="BFBFBF">
                   <a:alpha val="36000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -1899,13 +1983,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="22319031"/>
@@ -1924,7 +2009,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="f2f2f2">
+          <a:srgbClr val="F2F2F2">
             <a:alpha val="39000"/>
           </a:srgbClr>
         </a:solidFill>
@@ -1937,47 +2022,56 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
       <a:gsLst>
         <a:gs pos="0">
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:srgbClr val="bfbfbf"/>
+          <a:srgbClr val="BFBFBF"/>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="0" r="50000" b="100000"/>
+        <a:fillToRect l="50000" r="50000" b="100000"/>
       </a:path>
     </a:gradFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="bfbfbf"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1986,7 +2080,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -1994,7 +2088,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -2015,6 +2109,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2033,12 +2128,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2048,24 +2140,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2074,8 +2173,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2083,9 +2183,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 2 Subestimado'!$J$9:$J$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2105,8 +2206,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2136,6 +2237,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BDF-40F6-A8D2-F9D56179C3F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2152,12 +2258,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a7b4db"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2167,24 +2270,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2193,8 +2303,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2202,9 +2313,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 2 Subestimado'!$J$9:$J$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2224,8 +2336,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2255,7 +2367,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BDF-40F6-A8D2-F9D56179C3F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2264,6 +2389,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="80866506"/>
         <c:axId val="90928916"/>
       </c:lineChart>
@@ -2291,13 +2417,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="90928916"/>
@@ -2318,7 +2445,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf">
+                <a:srgbClr val="BFBFBF">
                   <a:alpha val="36000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -2340,13 +2467,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="80866506"/>
@@ -2365,7 +2493,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="f2f2f2">
+          <a:srgbClr val="F2F2F2">
             <a:alpha val="39000"/>
           </a:srgbClr>
         </a:solidFill>
@@ -2378,47 +2506,56 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
       <a:gsLst>
         <a:gs pos="0">
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:srgbClr val="bfbfbf"/>
+          <a:srgbClr val="BFBFBF"/>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="0" r="50000" b="100000"/>
+        <a:fillToRect l="50000" r="50000" b="100000"/>
       </a:path>
     </a:gradFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="bfbfbf"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2427,7 +2564,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:defRPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -2435,7 +2572,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="es-ES_tradnl" sz="1800" spc="-1" strike="noStrike">
+              <a:rPr lang="es-ES_tradnl" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
@@ -2456,6 +2593,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2474,12 +2612,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2489,24 +2624,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2515,8 +2657,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2524,9 +2667,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 3 Sobreestimado'!$J$8:$J$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2546,8 +2690,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2577,6 +2721,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D140-435F-83C4-06BCBC7AEF93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2593,12 +2742,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a7b4db"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="31680">
+            <a:ln w="31680" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2608,24 +2754,31 @@
             <c:size val="17"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a7b4db"/>
+                <a:srgbClr val="A7B4DB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="1" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
-                      <a:srgbClr val="ffffff"/>
+                      <a:srgbClr val="FFFFFF"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -2634,8 +2787,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2643,9 +2797,10 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'CASO 3 Sobreestimado'!$J$8:$J$13</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2665,8 +2820,8 @@
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2696,7 +2851,20 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D140-435F-83C4-06BCBC7AEF93}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln w="0">
@@ -2705,6 +2873,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="99888157"/>
         <c:axId val="31100377"/>
       </c:lineChart>
@@ -2732,13 +2901,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="31100377"/>
@@ -2759,7 +2929,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf">
+                <a:srgbClr val="BFBFBF">
                   <a:alpha val="36000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -2781,13 +2951,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="404040"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="99888157"/>
@@ -2806,7 +2977,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="f2f2f2">
+          <a:srgbClr val="F2F2F2">
             <a:alpha val="39000"/>
           </a:srgbClr>
         </a:solidFill>
@@ -2819,45 +2990,52 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+            <a:defRPr sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="404040"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:gradFill>
       <a:gsLst>
         <a:gs pos="0">
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:srgbClr val="bfbfbf"/>
+          <a:srgbClr val="BFBFBF"/>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="0" r="50000" b="100000"/>
+        <a:fillToRect l="50000" r="50000" b="100000"/>
       </a:path>
     </a:gradFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="bfbfbf"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2871,14 +3049,20 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19604520" y="2476440"/>
-        <a:ext cx="7233840" cy="3618720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2892,7 +3076,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -2906,14 +3090,20 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13472640" y="2600280"/>
-        <a:ext cx="7355160" cy="3790080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2927,7 +3117,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2941,14 +3131,20 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4423320" y="2851200"/>
-        <a:ext cx="7304400" cy="3787200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2962,7 +3158,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2976,14 +3172,20 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 1"/>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5121360" y="3276720"/>
-        <a:ext cx="7233840" cy="3787200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2997,7 +3199,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3011,14 +3213,20 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5540400" y="3515040"/>
-        <a:ext cx="7233840" cy="3787200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3031,1184 +3239,1524 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.16"/>
+    <col min="3" max="3" width="45.09765625" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">IF(F4=G$3,E4,0)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G34" si="0">IF(F4=G$3,E4,0)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">IF(F4=H$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">IF(F4=I$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">IF(F4=J$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">IF(F4=K$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="H4">
+        <f t="shared" ref="H4:H34" si="1">IF(F4=H$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I34" si="2">IF(F4=I$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J34" si="3">IF(F4=J$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K34" si="4">IF(F4=K$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">IF(F5=G$3,E5,0)</f>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">IF(F5=H$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">IF(F5=I$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">IF(F5=J$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">IF(F5=K$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="4">
         <v>1.5</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">IF(F6=G$3,E6,0)</f>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">IF(F6=H$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">IF(F6=I$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">IF(F6=J$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">IF(F6=K$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">G36</f>
-        <v>7.5</v>
+      <c r="O6">
+        <f>G36</f>
+        <v>8.5</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>20</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">IF(F7=G$3,E7,0)</f>
+      <c r="G7">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">IF(F7=H$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">IF(F7=I$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">IF(F7=J$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">IF(F7=K$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">H36</f>
-        <v>8</v>
-      </c>
-      <c r="Q7" s="0" t="s">
+      <c r="O7">
+        <f>H36</f>
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="3">
         <v>16</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <f aca="false">S6-O6</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S7">
+        <f>S6-O6</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">IF(F8=G$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">IF(F8=H$3,E8,0)</f>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">IF(F8=I$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">IF(F8=J$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">IF(F8=K$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">I36</f>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="0" t="s">
+      <c r="O8">
+        <f>I36</f>
+        <v>9</v>
+      </c>
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="3">
         <v>12</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <f aca="false">S7-O7</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S8">
+        <f>S7-O7</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>1.5</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">IF(F9=G$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">IF(F9=H$3,E9,0)</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">IF(F9=I$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">IF(F9=J$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">IF(F9=K$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>4</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">J36</f>
+      <c r="O9">
+        <f>J36</f>
+        <v>11.5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="3">
         <v>8</v>
       </c>
-      <c r="Q9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <f aca="false">S8-O8</f>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S9">
+        <f>S8-O8</f>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">IF(F10=G$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">IF(F10=H$3,E10,0)</f>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">IF(F10=I$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">IF(F10=J$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">IF(F10=K$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">K36</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0" t="s">
+      <c r="O10">
+        <f>K36</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="3">
         <v>4</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <f aca="false">S9-O9</f>
-        <v>-11.5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S10">
+        <f>S9-O9</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">IF(F11=G$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">IF(F11=H$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">IF(F11=I$3,E11,0)</f>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">IF(F11=J$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">IF(F11=K$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">SUM(N6:N10)</f>
+      <c r="N11">
+        <f>SUM(N6:N10)</f>
         <v>20</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">SUM(O6:O10)</f>
-        <v>31.5</v>
-      </c>
-      <c r="Q11" s="0" t="s">
+      <c r="O11">
+        <f>SUM(O6:O10)</f>
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <f aca="false">S10-O10</f>
-        <v>-11.5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>S10-O10</f>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">IF(F12=G$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">IF(F12=H$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">IF(F12=I$3,E12,0)</f>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">IF(F12=J$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">IF(F12=K$3,E12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">IF(F13=G$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">IF(F13=H$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">IF(F13=I$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">IF(F13=J$3,E13,0)</f>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">IF(F13=K$3,E13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">IF(F14=G$3,E14,0)</f>
+      <c r="G14">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">IF(F14=H$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">IF(F14=I$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">IF(F14=J$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">IF(F14=K$3,E14,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">IF(F15=G$3,E15,0)</f>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">IF(F15=H$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">IF(F15=I$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">IF(F15=J$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">IF(F15=K$3,E15,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="4">
         <v>0.5</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">IF(F16=G$3,E16,0)</f>
+      <c r="G16">
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">IF(F16=H$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">IF(F16=I$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">IF(F16=J$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">IF(F16=K$3,E16,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="4">
         <v>2.5</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">IF(F17=G$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <f aca="false">IF(F17=H$3,E17,0)</f>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">IF(F17=I$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">IF(F17=J$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">IF(F17=K$3,E17,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="4">
         <v>1.5</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">IF(F18=G$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false">IF(F18=H$3,E18,0)</f>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">IF(F18=I$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <f aca="false">IF(F18=J$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">IF(F18=K$3,E18,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">IF(F19=G$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <f aca="false">IF(F19=H$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">IF(F19=I$3,E19,0)</f>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <f aca="false">IF(F19=J$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">IF(F19=K$3,E19,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">IF(F20=G$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <f aca="false">IF(F20=H$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">IF(F20=I$3,E20,0)</f>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">IF(F20=J$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">IF(F20=K$3,E20,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">IF(F21=G$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <f aca="false">IF(F21=H$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <f aca="false">IF(F21=I$3,E21,0)</f>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">IF(F21=J$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">IF(F21=K$3,E21,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">IF(F22=G$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <f aca="false">IF(F22=H$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">IF(F22=I$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <f aca="false">IF(F22=J$3,E22,0)</f>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">IF(F22=K$3,E22,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="0" t="n">
-        <f aca="false">IF(F23=G$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false">IF(F23=H$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <f aca="false">IF(F23=I$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">IF(F23=J$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">IF(F23=K$3,E23,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="0" t="n">
-        <f aca="false">IF(F24=G$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">IF(F24=H$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">IF(F24=I$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">IF(F24=J$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">IF(F24=K$3,E24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="0" t="n">
-        <f aca="false">IF(F25=G$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false">IF(F25=H$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">IF(F25=I$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">IF(F25=J$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">IF(F25=K$3,E25,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="0" t="n">
-        <f aca="false">IF(F26=G$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">IF(F26=H$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">IF(F26=I$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">IF(F26=J$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">IF(F26=K$3,E26,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="0" t="n">
-        <f aca="false">IF(F27=G$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">IF(F27=H$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">IF(F27=I$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">IF(F27=J$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">IF(F27=K$3,E27,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="0" t="n">
-        <f aca="false">IF(F28=G$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false">IF(F28=H$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">IF(F28=I$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">IF(F28=J$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">IF(F28=K$3,E28,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="0" t="n">
-        <f aca="false">IF(F29=G$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">IF(F29=H$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <f aca="false">IF(F29=I$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <f aca="false">IF(F29=J$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">IF(F29=K$3,E29,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="0" t="n">
-        <f aca="false">IF(F30=G$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">IF(F30=H$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <f aca="false">IF(F30=I$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false">IF(F30=J$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">IF(F30=K$3,E30,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="0" t="n">
-        <f aca="false">IF(F31=G$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">IF(F31=H$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <f aca="false">IF(F31=I$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <f aca="false">IF(F31=J$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <f aca="false">IF(F31=K$3,E31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="0" t="n">
-        <f aca="false">IF(F32=G$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <f aca="false">IF(F32=H$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <f aca="false">IF(F32=I$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <f aca="false">IF(F32=J$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <f aca="false">IF(F32=K$3,E32,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="0" t="n">
-        <f aca="false">IF(F33=G$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">IF(F33=H$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <f aca="false">IF(F33=I$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">IF(F33=J$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">IF(F33=K$3,E33,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="0" t="n">
-        <f aca="false">IF(F34=G$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">IF(F34=H$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">IF(F34=I$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <f aca="false">IF(F34=J$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">IF(F34=K$3,E34,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="0" t="s">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">SUM(G4:G34)</f>
-        <v>7.5</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <f aca="false">SUM(H4:H34)</f>
-        <v>8</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">SUM(I4:I34)</f>
-        <v>8</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <f aca="false">SUM(J4:J34)</f>
-        <v>8</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">SUM(K4:K34)</f>
+      <c r="G36">
+        <f>SUM(G4:G34)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H4:H34)</f>
+        <v>9</v>
+      </c>
+      <c r="I36">
+        <f>SUM(I4:I34)</f>
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J4:J34)</f>
+        <v>11.5</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K4:K34)</f>
         <v>0</v>
       </c>
     </row>
@@ -4218,1295 +4766,1287 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="Q4:S4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="8" style="0" width="9.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.5"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="12" width="9.296875" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">IF(F4=G$3,E4,0)</f>
+      <c r="G4">
+        <f t="shared" ref="G4:G34" si="0">IF(F4=G$3,E4,0)</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">IF(F4=H$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">IF(F4=I$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <f aca="false">IF(F4=J$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">IF(F4=K$3,E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="H4">
+        <f t="shared" ref="H4:H34" si="1">IF(F4=H$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I34" si="2">IF(F4=I$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J34" si="3">IF(F4=J$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K34" si="4">IF(F4=K$3,E4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">IF(F5=G$3,E5,0)</f>
+      <c r="G5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">IF(F5=H$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">IF(F5=I$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">IF(F5=J$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">IF(F5=K$3,E5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>0.25</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">IF(F6=G$3,E6,0)</f>
+      <c r="G6">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">IF(F6=H$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">IF(F6=I$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <f aca="false">IF(F6=J$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">IF(F6=K$3,E6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">G36</f>
+      <c r="O6">
+        <f>G36</f>
         <v>1.75</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="R6">
         <v>20</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="S6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">IF(F7=G$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">IF(F7=H$3,E7,0)</f>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">IF(F7=I$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">IF(F7=J$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">IF(F7=K$3,E7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">H36</f>
+      <c r="O7">
+        <f>H36</f>
         <v>1.5</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="3">
         <v>16</v>
       </c>
-      <c r="S7" s="0" t="n">
-        <f aca="false">S6-O6</f>
+      <c r="S7">
+        <f>S6-O6</f>
         <v>18.25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>0.1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">IF(F8=G$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">IF(F8=H$3,E8,0)</f>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">IF(F8=I$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">IF(F8=J$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">IF(F8=K$3,E8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>4</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">I36</f>
-        <v>3.1</v>
-      </c>
-      <c r="Q8" s="0" t="s">
+      <c r="O8">
+        <f>I36</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="3" t="n">
+      <c r="R8" s="3">
         <v>12</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <f aca="false">S7-O7</f>
+      <c r="S8">
+        <f>S7-O7</f>
         <v>16.75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>0.2</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">IF(F9=G$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">IF(F9=H$3,E9,0)</f>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">IF(F9=I$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">IF(F9=J$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">IF(F9=K$3,E9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>4</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">J36</f>
-        <v>2.84</v>
-      </c>
-      <c r="Q9" s="0" t="s">
+      <c r="O9">
+        <f>J36</f>
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="3">
         <v>8</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <f aca="false">S8-O8</f>
+      <c r="S9">
+        <f>S8-O8</f>
         <v>13.65</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>0.3</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">IF(F10=G$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">IF(F10=H$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">IF(F10=I$3,E10,0)</f>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">IF(F10=J$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">IF(F10=K$3,E10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="3">
         <v>4</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">K36</f>
+      <c r="O10">
+        <f>K36</f>
+        <v>10.809999999999999</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="3">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <f>S9-O9</f>
         <v>10.81</v>
       </c>
-      <c r="Q10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="3" t="n">
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <f>SUM(N6:N10)</f>
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <f>SUM(O6:O10)</f>
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>S10-O10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <f aca="false">S9-O9</f>
-        <v>10.81</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="9" t="n">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>0.04</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>0.12</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25">
+        <v>0.4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <v>0.9</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>1.5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>1.2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31">
+        <v>1.4</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">IF(F11=G$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">IF(F11=H$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">IF(F11=I$3,E11,0)</f>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">IF(F11=J$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">IF(F11=K$3,E11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">SUM(N6:N10)</f>
-        <v>20</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">SUM(O6:O10)</f>
-        <v>20</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <f aca="false">S10-O10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <f aca="false">IF(F12=G$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">IF(F12=H$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">IF(F12=I$3,E12,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">IF(F12=J$3,E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">IF(F12=K$3,E12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">IF(F13=G$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">IF(F13=H$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">IF(F13=I$3,E13,0)</f>
-        <v>1.4</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">IF(F13=J$3,E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">IF(F13=K$3,E13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">IF(F14=G$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">IF(F14=H$3,E14,0)</f>
-        <v>1.1</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">IF(F14=I$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">IF(F14=J$3,E14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">IF(F14=K$3,E14,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">IF(F15=G$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">IF(F15=H$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">IF(F15=I$3,E15,0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">IF(F15=J$3,E15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">IF(F15=K$3,E15,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <f aca="false">IF(F16=G$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">IF(F16=H$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">IF(F16=I$3,E16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">IF(F16=J$3,E16,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">IF(F16=K$3,E16,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <f aca="false">IF(F17=G$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <f aca="false">IF(F17=H$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">IF(F17=I$3,E17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">IF(F17=J$3,E17,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">IF(F17=K$3,E17,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <f aca="false">IF(F18=G$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false">IF(F18=H$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">IF(F18=I$3,E18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <f aca="false">IF(F18=J$3,E18,0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">IF(F18=K$3,E18,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <f aca="false">IF(F19=G$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <f aca="false">IF(F19=H$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">IF(F19=I$3,E19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <f aca="false">IF(F19=J$3,E19,0)</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <f aca="false">IF(F19=K$3,E19,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <f aca="false">IF(F20=G$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <f aca="false">IF(F20=H$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">IF(F20=I$3,E20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">IF(F20=J$3,E20,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <f aca="false">IF(F20=K$3,E20,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <f aca="false">IF(F21=G$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <f aca="false">IF(F21=H$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <f aca="false">IF(F21=I$3,E21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">IF(F21=J$3,E21,0)</f>
-        <v>0.04</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <f aca="false">IF(F21=K$3,E21,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <f aca="false">IF(F22=G$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <f aca="false">IF(F22=H$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <f aca="false">IF(F22=I$3,E22,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <f aca="false">IF(F22=J$3,E22,0)</f>
-        <v>0.04</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <f aca="false">IF(F22=K$3,E22,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <f aca="false">IF(F23=G$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false">IF(F23=H$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <f aca="false">IF(F23=I$3,E23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">IF(F23=J$3,E23,0)</f>
-        <v>0.12</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <f aca="false">IF(F23=K$3,E23,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <f aca="false">IF(F24=G$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <f aca="false">IF(F24=H$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">IF(F24=I$3,E24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">IF(F24=J$3,E24,0)</f>
-        <v>0.04</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <f aca="false">IF(F24=K$3,E24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F25" s="0" t="n">
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33">
+        <v>1.2</v>
+      </c>
+      <c r="F33">
         <v>5</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <f aca="false">IF(F25=G$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <f aca="false">IF(F25=H$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <f aca="false">IF(F25=I$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">IF(F25=J$3,E25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <f aca="false">IF(F25=K$3,E25,0)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="0" t="n">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>5</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <f aca="false">IF(F26=G$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <f aca="false">IF(F26=H$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">IF(F26=I$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">IF(F26=J$3,E26,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <f aca="false">IF(F26=K$3,E26,0)</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">IF(F27=G$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">IF(F27=H$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <f aca="false">IF(F27=I$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">IF(F27=J$3,E27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">IF(F27=K$3,E27,0)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <f>SUM(G4:G34)</f>
+        <v>1.75</v>
+      </c>
+      <c r="H36">
+        <f>SUM(H4:H34)</f>
         <v>1.5</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">IF(F28=G$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <f aca="false">IF(F28=H$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <f aca="false">IF(F28=I$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">IF(F28=J$3,E28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <f aca="false">IF(F28=K$3,E28,0)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">IF(F29=G$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">IF(F29=H$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <f aca="false">IF(F29=I$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <f aca="false">IF(F29=J$3,E29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <f aca="false">IF(F29=K$3,E29,0)</f>
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <f aca="false">IF(F30=G$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">IF(F30=H$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <f aca="false">IF(F30=I$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false">IF(F30=J$3,E30,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <f aca="false">IF(F30=K$3,E30,0)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">IF(F31=G$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <f aca="false">IF(F31=H$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <f aca="false">IF(F31=I$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <f aca="false">IF(F31=J$3,E31,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <f aca="false">IF(F31=K$3,E31,0)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">IF(F32=G$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <f aca="false">IF(F32=H$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <f aca="false">IF(F32=I$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <f aca="false">IF(F32=J$3,E32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <f aca="false">IF(F32=K$3,E32,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">IF(F33=G$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <f aca="false">IF(F33=H$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <f aca="false">IF(F33=I$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">IF(F33=J$3,E33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <f aca="false">IF(F33=K$3,E33,0)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <f aca="false">IF(F34=G$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <f aca="false">IF(F34=H$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <f aca="false">IF(F34=I$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <f aca="false">IF(F34=J$3,E34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">IF(F34=K$3,E34,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">SUM(G4:G34)</f>
-        <v>1.75</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <f aca="false">SUM(H4:H34)</f>
-        <v>1.5</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">SUM(I4:I34)</f>
-        <v>3.1</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <f aca="false">SUM(J4:J34)</f>
-        <v>2.84</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">SUM(K4:K34)</f>
-        <v>10.81</v>
+      <c r="I36">
+        <f>SUM(I4:I34)</f>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="J36">
+        <f>SUM(J4:J34)</f>
+        <v>2.8400000000000003</v>
+      </c>
+      <c r="K36">
+        <f>SUM(K4:K34)</f>
+        <v>10.809999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5515,190 +6055,182 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="Q4:S4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.5"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="n">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="n">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>8</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="n">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">SUM(F8:F12)</f>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
         <v>20</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">SUM(G8:G12)</f>
+      <c r="G13">
+        <f>SUM(G8:G12)</f>
         <v>20</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
     </row>
@@ -5707,187 +6239,179 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="J7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="n">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="n">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>16</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="n">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>4</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>-10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="0" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <f aca="false">SUM(F9:F13)</f>
+      <c r="F14">
+        <f>SUM(F9:F13)</f>
         <v>20</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <f aca="false">SUM(G9:G13)</f>
+      <c r="G14">
+        <f>SUM(G9:G13)</f>
         <v>32</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="0" t="n">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>-12</v>
       </c>
     </row>
@@ -5896,187 +6420,179 @@
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="J7:L7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B6:L13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="168" zoomScaleNormal="168" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView topLeftCell="A5" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="0" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="n">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8" s="10" t="n">
+      <c r="L8" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="n">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>16</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>8</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="0" t="n">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>4</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <f aca="false">SUM(F8:F12)</f>
+      <c r="F13">
+        <f>SUM(F8:F12)</f>
         <v>20</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <f aca="false">SUM(G8:G12)</f>
+      <c r="G13">
+        <f>SUM(G8:G12)</f>
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>8</v>
       </c>
     </row>
@@ -6085,13 +6601,8 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="J6:L6"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagramaBurndown.xlsx
+++ b/diagramaBurndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apazg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apazg\Desktop\trabajo-sm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F2641-0A64-47D2-8721-CD3CC5EDC758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA22F10-F1F4-4987-BC25-20C702714078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
   <si>
     <t>SEMANA DE TRABAJO</t>
   </si>
@@ -358,30 +358,12 @@
     <t>Sobreestimado</t>
   </si>
   <si>
-    <t>Revisión y ayuda a mis compañeros con el notebook</t>
-  </si>
-  <si>
     <t>Buscar mejoras o fallos en el código de mis compañeros con el fin de mejorar el proyecto.</t>
   </si>
   <si>
-    <t>Descarga y preparación de docker</t>
-  </si>
-  <si>
     <t>Descarga de la aplicación docker desktop y preparación del entorno</t>
   </si>
   <si>
-    <t>Lectura de información sobre comandos docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas con comandos </t>
-  </si>
-  <si>
-    <t>Creacion del contenedor</t>
-  </si>
-  <si>
-    <t>Poner contenedor en funcionamiento</t>
-  </si>
-  <si>
     <t>Ejecución del contenedor para ver si funciona.</t>
   </si>
   <si>
@@ -392,13 +374,31 @@
   </si>
   <si>
     <t>Buscar información sobre distintos comandos y sobre la creación de contendores.</t>
+  </si>
+  <si>
+    <t>Revisión y ayuda a mis compañeros con el notebook (Ángel)</t>
+  </si>
+  <si>
+    <t>Creacion del contenedor (Ángel)</t>
+  </si>
+  <si>
+    <t>Poner contenedor en funcionamiento (Ángel)</t>
+  </si>
+  <si>
+    <t>Descarga y preparación de docker(Ángel)</t>
+  </si>
+  <si>
+    <t>Lectura de información sobre comandos docker (Ángel)</t>
+  </si>
+  <si>
+    <t>Pruebas con comandos (Ángel)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -427,6 +427,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -475,11 +483,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -493,6 +498,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3538,31 +3547,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="45.09765625" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="60.796875" customWidth="1"/>
+    <col min="4" max="4" width="53.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -3588,16 +3597,16 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4">
@@ -3620,28 +3629,28 @@
         <f t="shared" ref="K4:K34" si="4">IF(F4=K$3,E4,0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5">
@@ -3678,16 +3687,16 @@
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1.5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6">
@@ -3713,14 +3722,14 @@
       <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
       <c r="O6">
         <f>G36</f>
-        <v>8.5</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+        <v>11.5</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R6">
@@ -3731,16 +3740,16 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7">
@@ -3766,35 +3775,35 @@
       <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>4</v>
       </c>
       <c r="O7">
         <f>H36</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>16</v>
       </c>
       <c r="S7">
         <f>S6-O6</f>
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8">
@@ -3820,35 +3829,35 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>4</v>
       </c>
       <c r="O8">
         <f>I36</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>12</v>
       </c>
       <c r="S8">
         <f>S7-O7</f>
-        <v>2.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
       <c r="G9">
@@ -3874,35 +3883,35 @@
       <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>4</v>
       </c>
       <c r="O9">
         <f>J36</f>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>8</v>
       </c>
       <c r="S9">
         <f>S8-O8</f>
-        <v>-6.5</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10">
@@ -3928,7 +3937,7 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>4</v>
       </c>
       <c r="O10">
@@ -3938,25 +3947,25 @@
       <c r="Q10" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>4</v>
       </c>
       <c r="S10">
         <f>S9-O9</f>
-        <v>-18</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
       <c r="G11">
@@ -3988,30 +3997,30 @@
       </c>
       <c r="O11">
         <f>SUM(O6:O10)</f>
-        <v>38</v>
+        <v>47.5</v>
       </c>
       <c r="Q11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>0</v>
       </c>
       <c r="S11">
         <f>S10-O10</f>
-        <v>-18</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12">
@@ -4036,16 +4045,16 @@
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13">
@@ -4070,16 +4079,16 @@
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14">
@@ -4104,16 +4113,16 @@
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15">
@@ -4138,16 +4147,16 @@
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16">
@@ -4172,16 +4181,16 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2.5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17">
@@ -4206,16 +4215,16 @@
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1.5</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>2</v>
       </c>
       <c r="G18">
@@ -4240,16 +4249,16 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>3</v>
       </c>
       <c r="G19">
@@ -4274,16 +4283,16 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>3</v>
       </c>
       <c r="G20">
@@ -4308,16 +4317,16 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>3</v>
       </c>
       <c r="G21">
@@ -4342,16 +4351,16 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>4</v>
       </c>
       <c r="G22">
@@ -4376,240 +4385,244 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>IF(F23=G$3,E23,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>IF(F23=H$3,E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IF(F23=I$3,E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>IF(F23=J$3,E23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>IF(F23=K$3,E23,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>IF(F24=G$3,E24,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>IF(F24=H$3,E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>IF(F24=I$3,E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>IF(F24=J$3,E24,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>IF(F24=K$3,E24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>IF(F25=G$3,E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>IF(F25=H$3,E25,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <f>IF(F25=I$3,E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>IF(F25=J$3,E25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>IF(F25=K$3,E25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>IF(F26=G$3,E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>IF(F26=H$3,E26,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f>IF(F26=I$3,E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>IF(F26=J$3,E26,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>IF(F26=K$3,E26,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f>IF(F27=G$3,E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>IF(F27=H$3,E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>IF(F27=I$3,E27,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>IF(F27=J$3,E27,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>IF(F27=K$3,E27,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>H29</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>IF(F28=I$3,E28,0)</f>
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <f>IF(F28=J$3,E28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>IF(F28=K$3,E28,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="3">
         <v>4</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="G29">
+        <f>IF(F29=G$3,E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>IF(F29=H$3,E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>IF(F29=I$3,E29,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>IF(F29=J$3,E29,0)</f>
         <v>4</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4632,10 +4645,10 @@
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4658,10 +4671,10 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4684,10 +4697,10 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4710,10 +4723,10 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4741,19 +4754,19 @@
       </c>
       <c r="G36">
         <f>SUM(G4:G34)</f>
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="H36">
         <f>SUM(H4:H34)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I36">
         <f>SUM(I4:I34)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <f>SUM(J4:J34)</f>
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K36">
         <f>SUM(K4:K34)</f>
@@ -4767,8 +4780,8 @@
     <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4791,13 +4804,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="G2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
@@ -4861,16 +4874,16 @@
         <f t="shared" ref="K4:K34" si="4">IF(F4=K$3,E4,0)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -4954,14 +4967,14 @@
       <c r="M6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>4</v>
       </c>
       <c r="O6">
         <f>G36</f>
         <v>1.75</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R6">
@@ -5007,7 +5020,7 @@
       <c r="M7" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>4</v>
       </c>
       <c r="O7">
@@ -5017,7 +5030,7 @@
       <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>16</v>
       </c>
       <c r="S7">
@@ -5061,7 +5074,7 @@
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>4</v>
       </c>
       <c r="O8">
@@ -5071,7 +5084,7 @@
       <c r="Q8" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>12</v>
       </c>
       <c r="S8">
@@ -5115,7 +5128,7 @@
       <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>4</v>
       </c>
       <c r="O9">
@@ -5125,7 +5138,7 @@
       <c r="Q9" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>8</v>
       </c>
       <c r="S9">
@@ -5169,7 +5182,7 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>4</v>
       </c>
       <c r="O10">
@@ -5179,7 +5192,7 @@
       <c r="Q10" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>4</v>
       </c>
       <c r="S10">
@@ -5194,7 +5207,7 @@
       <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11">
@@ -5234,7 +5247,7 @@
       <c r="Q11" t="s">
         <v>24</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>0</v>
       </c>
       <c r="S11">
@@ -6075,16 +6088,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
@@ -6122,7 +6135,7 @@
       <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>20</v>
       </c>
     </row>
@@ -6256,16 +6269,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
@@ -6303,7 +6316,7 @@
       <c r="K9">
         <v>20</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>20</v>
       </c>
     </row>
@@ -6437,16 +6450,16 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="J6" s="1" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
@@ -6484,7 +6497,7 @@
       <c r="K8">
         <v>20</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>20</v>
       </c>
     </row>
